--- a/db-cars.xlsx
+++ b/db-cars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Telaio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambrio</t>
+    <t xml:space="preserve">Cabrio</t>
   </si>
   <si>
     <t xml:space="preserve">Air Emission Standard</t>
@@ -55,10 +55,31 @@
     <t xml:space="preserve">INT</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMALLINT</t>
   </si>
   <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">TINYINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTNULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT(false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT(4)</t>
   </si>
 </sst>
 </file>
@@ -68,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,8 +111,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -104,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -112,6 +138,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -138,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -147,7 +180,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,79 +209,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/db-cars.xlsx
+++ b/db-cars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -180,11 +180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,105 +221,118 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/db-cars.xlsx
+++ b/db-cars.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Cilindrata</t>
   </si>
   <si>
-    <t xml:space="preserve">Anno di Immatricolazione</t>
+    <t xml:space="preserve">Anno di Produzione</t>
   </si>
   <si>
     <t xml:space="preserve">Porte</t>
@@ -94,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,12 +115,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,19 +215,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
